--- a/sheetsCar/WUFR23DRS.xlsx
+++ b/sheetsCar/WUFR23DRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\OneDrive\Desktop\racing\WUFROpenLAP\sheetsCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\racing\OpenLAP\sheetsCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24691E1-6A2B-47CB-B1F1-2A0A35F5D181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5336816-1BDB-4465-8B4B-DEB40DA6265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="13260" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -736,8 +736,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
+  <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Engine Speed [rpm]"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Torque [Nm]"/>
@@ -1011,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1786,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1808,51 +1808,227 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>5054</v>
+        <v>1500</v>
       </c>
       <c r="B2" s="1">
-        <v>35.25</v>
+        <v>34.190677999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>6007</v>
+        <v>2000</v>
       </c>
       <c r="B3" s="1">
-        <v>44.74</v>
+        <v>38.153267</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>7029</v>
+        <v>2500</v>
       </c>
       <c r="B4" s="1">
-        <v>42.02</v>
+        <v>42.697853000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>8079</v>
+        <v>3000</v>
       </c>
       <c r="B5" s="1">
-        <v>46.09</v>
+        <v>43.89132</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>9039</v>
+        <v>3500</v>
       </c>
       <c r="B6" s="1">
-        <v>47.45</v>
+        <v>44.134804000000003</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>9954</v>
+        <v>4000</v>
       </c>
       <c r="B7" s="1">
-        <v>58.3</v>
-      </c>
+        <v>46.994895999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4500</v>
+      </c>
+      <c r="B8" s="1">
+        <v>47.800423000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>46.561329999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5500</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45.235340000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>46.627839999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>6500</v>
+      </c>
+      <c r="B12" s="1">
+        <v>49.217013999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>7000</v>
+      </c>
+      <c r="B13" s="1">
+        <v>49.137928000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>7500</v>
+      </c>
+      <c r="B14" s="1">
+        <v>49.847115000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B15" s="1">
+        <v>49.267456000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>8500</v>
+      </c>
+      <c r="B16" s="1">
+        <v>48.523453000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>9000</v>
+      </c>
+      <c r="B17" s="1">
+        <v>48.711413999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>9500</v>
+      </c>
+      <c r="B18" s="1">
+        <v>49.107340000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B19" s="1">
+        <v>49.290390000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>10500</v>
+      </c>
+      <c r="B20" s="1">
+        <v>48.222360000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>11000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>46.390320000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
